--- a/track_results/demo_tracktor_and_jde20/summary_demo_tracktor_and_jde20.xlsx
+++ b/track_results/demo_tracktor_and_jde20/summary_demo_tracktor_and_jde20.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:S8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -650,118 +650,120 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>MOT17-05-SDP</t>
+          <t>MOT17-09-SDP</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>0.5053528512125847</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.6040741708017759</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.4343661971830986</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.6826291079812207</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.9493340297727866</v>
       </c>
       <c r="G4" t="n">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J4" t="n">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>5686</v>
+        <v>194</v>
       </c>
       <c r="L4" t="n">
-        <v>6917</v>
+        <v>1690</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="O4" t="n">
-        <v>-0.8220326731241867</v>
-      </c>
-      <c r="P4" t="inlineStr"/>
+        <v>0.6334272300469483</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.1610163806224161</v>
+      </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MOT17-09-SDP</t>
+          <t>MOT17-10-SDP</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.5053528512125847</v>
+        <v>0.3910943766882213</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6040741708017759</v>
+        <v>0.4120741699008193</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4343661971830986</v>
+        <v>0.3721473635018304</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6826291079812207</v>
+        <v>0.7236544902250954</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9493340297727866</v>
+        <v>0.801293661060802</v>
       </c>
       <c r="G5" t="n">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I5" t="n">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
-        <v>194</v>
+        <v>2304</v>
       </c>
       <c r="L5" t="n">
-        <v>1690</v>
+        <v>3548</v>
       </c>
       <c r="M5" t="n">
-        <v>68</v>
+        <v>453</v>
       </c>
       <c r="N5" t="n">
-        <v>74</v>
+        <v>487</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6334272300469483</v>
+        <v>0.5089181400420594</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1610163806224161</v>
+        <v>0.2340833556598144</v>
       </c>
       <c r="Q5" t="n">
-        <v>8</v>
+        <v>82</v>
       </c>
       <c r="R5" t="n">
-        <v>63</v>
+        <v>370</v>
       </c>
       <c r="S5" t="n">
         <v>3</v>
@@ -770,242 +772,183 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MOT17-10-SDP</t>
+          <t>MOT17-11-SDP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.3910943766882213</v>
+        <v>0.5490443184204999</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4120741699008193</v>
+        <v>0.5441298917568693</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3721473635018304</v>
+        <v>0.5540483255616787</v>
       </c>
       <c r="E6" t="n">
-        <v>0.7236544902250954</v>
+        <v>0.7984315387876219</v>
       </c>
       <c r="F6" t="n">
-        <v>0.801293661060802</v>
+        <v>0.7841382181515404</v>
       </c>
       <c r="G6" t="n">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="H6" t="n">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="I6" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>2304</v>
+        <v>2074</v>
       </c>
       <c r="L6" t="n">
-        <v>3548</v>
+        <v>1902</v>
       </c>
       <c r="M6" t="n">
-        <v>453</v>
+        <v>139</v>
       </c>
       <c r="N6" t="n">
-        <v>487</v>
+        <v>136</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5089181400420594</v>
+        <v>0.5639041966935142</v>
       </c>
       <c r="P6" t="n">
-        <v>0.2340833556598144</v>
+        <v>0.1610283051283066</v>
       </c>
       <c r="Q6" t="n">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="R6" t="n">
-        <v>370</v>
+        <v>124</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>MOT17-11-SDP</t>
+          <t>MOT17-13-SDP</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5490443184204999</v>
+        <v>0.4206145697591324</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5441298917568693</v>
+        <v>0.411871243928542</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5540483255616787</v>
+        <v>0.4297371585638207</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7984315387876219</v>
+        <v>0.6747981446486858</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7841382181515404</v>
+        <v>0.6467440520293076</v>
       </c>
       <c r="G7" t="n">
-        <v>75</v>
+        <v>110</v>
       </c>
       <c r="H7" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="I7" t="n">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K7" t="n">
-        <v>2074</v>
+        <v>4291</v>
       </c>
       <c r="L7" t="n">
-        <v>1902</v>
+        <v>3786</v>
       </c>
       <c r="M7" t="n">
-        <v>139</v>
+        <v>705</v>
       </c>
       <c r="N7" t="n">
-        <v>136</v>
+        <v>598</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5639041966935142</v>
+        <v>0.245662257344099</v>
       </c>
       <c r="P7" t="n">
-        <v>0.1610283051283066</v>
+        <v>0.2456506263669506</v>
       </c>
       <c r="Q7" t="n">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="R7" t="n">
-        <v>124</v>
+        <v>596</v>
       </c>
       <c r="S7" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>MOT17-13-SDP</t>
+          <t>OVERALL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4206145697591324</v>
+        <v>0.514773888403156</v>
       </c>
       <c r="C8" t="n">
-        <v>0.411871243928542</v>
+        <v>0.578442745200161</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4297371585638207</v>
+        <v>0.4637312583032834</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6747981446486858</v>
+        <v>0.6850730688935281</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6467440520293076</v>
+        <v>0.8545370611491205</v>
       </c>
       <c r="G8" t="n">
-        <v>110</v>
+        <v>413</v>
       </c>
       <c r="H8" t="n">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="I8" t="n">
-        <v>65</v>
+        <v>221</v>
       </c>
       <c r="J8" t="n">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="K8" t="n">
-        <v>4291</v>
+        <v>12289</v>
       </c>
       <c r="L8" t="n">
-        <v>3786</v>
+        <v>33187</v>
       </c>
       <c r="M8" t="n">
-        <v>705</v>
+        <v>1720</v>
       </c>
       <c r="N8" t="n">
-        <v>598</v>
+        <v>1801</v>
       </c>
       <c r="O8" t="n">
-        <v>0.245662257344099</v>
+        <v>0.5521351300056937</v>
       </c>
       <c r="P8" t="n">
-        <v>0.2456506263669506</v>
+        <v>0.1918083304609443</v>
       </c>
       <c r="Q8" t="n">
-        <v>121</v>
+        <v>275</v>
       </c>
       <c r="R8" t="n">
-        <v>596</v>
+        <v>1466</v>
       </c>
       <c r="S8" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>OVERALL</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.4827303484552886</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5419661077100524</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.4351674577237148</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.6428755888403074</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.800649897968237</v>
-      </c>
-      <c r="G9" t="n">
-        <v>546</v>
-      </c>
-      <c r="H9" t="n">
-        <v>139</v>
-      </c>
-      <c r="I9" t="n">
-        <v>221</v>
-      </c>
-      <c r="J9" t="n">
-        <v>186</v>
-      </c>
-      <c r="K9" t="n">
-        <v>17975</v>
-      </c>
-      <c r="L9" t="n">
-        <v>40104</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1720</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1801</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.4674924530486122</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="n">
-        <v>275</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1466</v>
-      </c>
-      <c r="S9" t="n">
         <v>38</v>
       </c>
     </row>
